--- a/data/private_dataL.xlsx
+++ b/data/private_dataL.xlsx
@@ -1,766 +1,789 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matusstanko/5-semester/sec-and-privacy/sec-and-privacy-finalProject/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFFF3F9-5B7C-B048-9017-5802C0A9C4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2820" yWindow="4400" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citizenship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marital_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el-Baig, Hawraa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Married/separated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Del Rosario, Jacqueline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vocational bachelors educations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Never married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benavides, Rosemerry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vocational Education and Training (VET)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeddanapudy, Natalie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramirez-Moran, Jose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dearing, James</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson, Tonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easley, Calli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masters programmes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith, Savannah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper secondary education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massarotti, Jared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yussufu, Tashara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masingale, Colton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotton, Brittney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herrera, Rachelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short cycle higher education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franz, Gregory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Widowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid vote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santillanes, Shani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Bashir, Awaatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apineru, Arshia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not stated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worthy, Maryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rindy, Tessa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brown, Terryle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luzardo, Estela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schurr, Charlotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el-Irani, Ayyoob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ironwing, Sonny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pae, Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sohn, Kari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el-Satter, Nadeem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Hammad, Salma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perez, Westen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernandez Dela Torre, Sabrina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el-Haq, Sadeeda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thompson, Rocky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curry, Mische</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith, Courtney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camacho, Andre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortiz, Chloe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fern, Mikkel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lopez Murillo, Giovanni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Rabbani, Abdul Khaliq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tharpe, Vivian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Mostafa, Shaafi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edman, Oluwademilade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruce, Sasha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauldin, Mary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valdez, Briana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyen, Bryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Sayed, Saqr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Ebrahimi, Rashaad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olveda Madrid, Felix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rivera, Julio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weiss, Lindzey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debenedittis, Isabella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fischer, Mahyar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Root, Alanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moreno, Javier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilterbrand, David</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tewelde, Ashley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilcox, Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook, Taylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Mahfouz, Aarif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bell, Trysten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamlet, Tyler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burnett, Dandre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owens, Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oster, Maria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horn, Joshua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigil, Julia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Androshchuk, Samuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelors programmes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bluford, Chelsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billie, Traivon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boden, Tyler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Doud, Shabaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gebre-Michael, Christoffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhD programmes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mcdonnell, Levi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Majid, Saafiyya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malick, Emily</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garcia, Selena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ursich, Zachary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robb, Kelsie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weinmeister, Emma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wakefield, Sabrina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberts, Dillon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunningham, Robel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Habib, Shaheera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dittloff, Marc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Shakir, Uthmaa N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Reilly, Javkhlan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castaneda, Karen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schuhrke, Karli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruiz, Michaeli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terrell, Miguel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weiss, Ryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edwards, Seth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coley, Miles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Mir, Nisma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youngblood, Christian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islamzai, Kelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brooks, Bethel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimrey, Anthony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hill, Joseph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Jabour, Huwaida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasco, Chelsea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avila, Shannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tribble, Enrique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crampton, Brittani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicknair, Joseph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakobong, Andreas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Farooq, Fidda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roseveare, Eunice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brown, Eemoni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Abood, Shahaada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harris, Gabrielle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begay, Roman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Needham, Kevin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nadiadi, Velia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias, Jennifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lopez, Luz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bean, Sahza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avina, Adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilkey, Kamen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Ansari, Nazeema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chang, Alexander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anderstrom, Krysta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duarte, Alejandra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lerma, Cesar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Jabbour, Sireen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spetsas, Anthony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pineda, Allexis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamas, Darshae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Shahidi, Waseema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brough, Tylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beyene, Ronnica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el-Ghazi, Rasheeqa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el-Asad, Haamid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camack, Alysha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibson, Bradley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yamamoto, Julian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O'Brien, Josh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aleman, Kimberly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valadez, Diego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bain, Steven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinez Serrano, Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apodaca Cordova, Kristie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toledo, Seth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzalez, Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nash, Bhewattie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bost, Gabrielle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el-Amer, Waleed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rivera, Miriam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garcia, Serenity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonner, Amanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White, Brendan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lumsden, Tyler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Diab, Abdul Jabbaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keelick, Mareno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delarosa, Justine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el-Soliman, Ghazaala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gramm, Sheila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibbs, Bobby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marion, Kaileia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chretien, Danica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yilma, Jaisean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zahn, Richard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gowda, Joshua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayes, Danielle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magat, Andrew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stateless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el-Soltani, Abdul Noor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuanes, Michelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teka, Najuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pena, Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espinosa, Lauren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enriquez, Ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torres, Benjamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balderrama, Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooper, Mikhaila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shihadeh, Nadira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holt, Lucy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Ghazi, Imraan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagasca, Troy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crum, Mariah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moore, Tamara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casey, Kayla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobb, Jorden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murray, Jennifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibarra, Ernesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finney, Isaiah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Farra, Jameel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summa, Cody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cochran, Matthew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tran, Yvonne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Laham, Tuhfa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owens, Allysa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davis, Erin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jurado, Tisha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maclellan, Ariana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el-Ahmad, Amaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">al-Hamidi, Mufliha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hutcheson, Twanna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kavorkian, Shon</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="251">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>evote</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>el-Baig, Hawraa</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>Primary education</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Married/separated</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Del Rosario, Jacqueline</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>Vocational bachelors educations</t>
+  </si>
+  <si>
+    <t>Never married</t>
+  </si>
+  <si>
+    <t>Benavides, Rosemerry</t>
+  </si>
+  <si>
+    <t>Vocational Education and Training (VET)</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Yeddanapudy, Natalie</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Ramirez-Moran, Jose</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Dearing, James</t>
+  </si>
+  <si>
+    <t>Johnson, Tonio</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Easley, Calli</t>
+  </si>
+  <si>
+    <t>Masters programmes</t>
+  </si>
+  <si>
+    <t>Smith, Savannah</t>
+  </si>
+  <si>
+    <t>Upper secondary education</t>
+  </si>
+  <si>
+    <t>Massarotti, Jared</t>
+  </si>
+  <si>
+    <t>Yussufu, Tashara</t>
+  </si>
+  <si>
+    <t>Masingale, Colton</t>
+  </si>
+  <si>
+    <t>Cotton, Brittney</t>
+  </si>
+  <si>
+    <t>Herrera, Rachelle</t>
+  </si>
+  <si>
+    <t>Short cycle higher education</t>
+  </si>
+  <si>
+    <t>Franz, Gregory</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Invalid vote</t>
+  </si>
+  <si>
+    <t>Santillanes, Shani</t>
+  </si>
+  <si>
+    <t>al-Bashir, Awaatif</t>
+  </si>
+  <si>
+    <t>Apineru, Arshia</t>
+  </si>
+  <si>
+    <t>Not stated</t>
+  </si>
+  <si>
+    <t>Worthy, Maryan</t>
+  </si>
+  <si>
+    <t>Rindy, Tessa</t>
+  </si>
+  <si>
+    <t>Brown, Terryle</t>
+  </si>
+  <si>
+    <t>Luzardo, Estela</t>
+  </si>
+  <si>
+    <t>Schurr, Charlotte</t>
+  </si>
+  <si>
+    <t>el-Irani, Ayyoob</t>
+  </si>
+  <si>
+    <t>Ironwing, Sonny</t>
+  </si>
+  <si>
+    <t>Pae, Jordan</t>
+  </si>
+  <si>
+    <t>Sohn, Kari</t>
+  </si>
+  <si>
+    <t>el-Satter, Nadeem</t>
+  </si>
+  <si>
+    <t>al-Hammad, Salma</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Perez, Westen</t>
+  </si>
+  <si>
+    <t>Fernandez Dela Torre, Sabrina</t>
+  </si>
+  <si>
+    <t>el-Haq, Sadeeda</t>
+  </si>
+  <si>
+    <t>Thompson, Rocky</t>
+  </si>
+  <si>
+    <t>Curry, Mische</t>
+  </si>
+  <si>
+    <t>Smith, Courtney</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Camacho, Andre</t>
+  </si>
+  <si>
+    <t>Ortiz, Chloe</t>
+  </si>
+  <si>
+    <t>Fern, Mikkel</t>
+  </si>
+  <si>
+    <t>Lopez Murillo, Giovanni</t>
+  </si>
+  <si>
+    <t>al-Rabbani, Abdul Khaliq</t>
+  </si>
+  <si>
+    <t>Tharpe, Vivian</t>
+  </si>
+  <si>
+    <t>al-Mostafa, Shaafi</t>
+  </si>
+  <si>
+    <t>Edman, Oluwademilade</t>
+  </si>
+  <si>
+    <t>Bruce, Sasha</t>
+  </si>
+  <si>
+    <t>Mauldin, Mary</t>
+  </si>
+  <si>
+    <t>Valdez, Briana</t>
+  </si>
+  <si>
+    <t>Nguyen, Bryan</t>
+  </si>
+  <si>
+    <t>al-Sayed, Saqr</t>
+  </si>
+  <si>
+    <t>al-Ebrahimi, Rashaad</t>
+  </si>
+  <si>
+    <t>Olveda Madrid, Felix</t>
+  </si>
+  <si>
+    <t>Rivera, Julio</t>
+  </si>
+  <si>
+    <t>Weiss, Lindzey</t>
+  </si>
+  <si>
+    <t>Debenedittis, Isabella</t>
+  </si>
+  <si>
+    <t>Fischer, Mahyar</t>
+  </si>
+  <si>
+    <t>Root, Alanna</t>
+  </si>
+  <si>
+    <t>Moreno, Javier</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Hilterbrand, David</t>
+  </si>
+  <si>
+    <t>Tewelde, Ashley</t>
+  </si>
+  <si>
+    <t>Wilcox, Daniel</t>
+  </si>
+  <si>
+    <t>Cook, Taylor</t>
+  </si>
+  <si>
+    <t>al-Mahfouz, Aarif</t>
+  </si>
+  <si>
+    <t>Bell, Trysten</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Hamlet, Tyler</t>
+  </si>
+  <si>
+    <t>Burnett, Dandre</t>
+  </si>
+  <si>
+    <t>Owens, Michael</t>
+  </si>
+  <si>
+    <t>Oster, Maria</t>
+  </si>
+  <si>
+    <t>Horn, Joshua</t>
+  </si>
+  <si>
+    <t>Vigil, Julia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Androshchuk, Samuel</t>
+  </si>
+  <si>
+    <t>Bachelors programmes</t>
+  </si>
+  <si>
+    <t>Bluford, Chelsa</t>
+  </si>
+  <si>
+    <t>Billie, Traivon</t>
+  </si>
+  <si>
+    <t>Boden, Tyler</t>
+  </si>
+  <si>
+    <t>al-Doud, Shabaan</t>
+  </si>
+  <si>
+    <t>Gebre-Michael, Christoffer</t>
+  </si>
+  <si>
+    <t>PhD programmes</t>
+  </si>
+  <si>
+    <t>Mcdonnell, Levi</t>
+  </si>
+  <si>
+    <t>al-Majid, Saafiyya</t>
+  </si>
+  <si>
+    <t>Malick, Emily</t>
+  </si>
+  <si>
+    <t>Garcia, Selena</t>
+  </si>
+  <si>
+    <t>Ursich, Zachary</t>
+  </si>
+  <si>
+    <t>Robb, Kelsie</t>
+  </si>
+  <si>
+    <t>Weinmeister, Emma</t>
+  </si>
+  <si>
+    <t>Wakefield, Sabrina</t>
+  </si>
+  <si>
+    <t>Roberts, Dillon</t>
+  </si>
+  <si>
+    <t>Cunningham, Robel</t>
+  </si>
+  <si>
+    <t>al-Habib, Shaheera</t>
+  </si>
+  <si>
+    <t>Dittloff, Marc</t>
+  </si>
+  <si>
+    <t>al-Shakir, Uthmaa N</t>
+  </si>
+  <si>
+    <t>O Reilly, Javkhlan</t>
+  </si>
+  <si>
+    <t>Castaneda, Karen</t>
+  </si>
+  <si>
+    <t>Schuhrke, Karli</t>
+  </si>
+  <si>
+    <t>Ruiz, Michaeli</t>
+  </si>
+  <si>
+    <t>Terrell, Miguel</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Weiss, Ryan</t>
+  </si>
+  <si>
+    <t>Edwards, Seth</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Coley, Miles</t>
+  </si>
+  <si>
+    <t>al-Mir, Nisma</t>
+  </si>
+  <si>
+    <t>Youngblood, Christian</t>
+  </si>
+  <si>
+    <t>Islamzai, Kelly</t>
+  </si>
+  <si>
+    <t>Brooks, Bethel</t>
+  </si>
+  <si>
+    <t>Kimrey, Anthony</t>
+  </si>
+  <si>
+    <t>Hill, Joseph</t>
+  </si>
+  <si>
+    <t>al-Jabour, Huwaida</t>
+  </si>
+  <si>
+    <t>Glasco, Chelsea</t>
+  </si>
+  <si>
+    <t>Avila, Shannon</t>
+  </si>
+  <si>
+    <t>Tribble, Enrique</t>
+  </si>
+  <si>
+    <t>Crampton, Brittani</t>
+  </si>
+  <si>
+    <t>Vicknair, Joseph</t>
+  </si>
+  <si>
+    <t>Lakobong, Andreas</t>
+  </si>
+  <si>
+    <t>al-Farooq, Fidda</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Roseveare, Eunice</t>
+  </si>
+  <si>
+    <t>Brown, Eemoni</t>
+  </si>
+  <si>
+    <t>al-Abood, Shahaada</t>
+  </si>
+  <si>
+    <t>Harris, Gabrielle</t>
+  </si>
+  <si>
+    <t>Begay, Roman</t>
+  </si>
+  <si>
+    <t>Needham, Kevin</t>
+  </si>
+  <si>
+    <t>Nadiadi, Velia</t>
+  </si>
+  <si>
+    <t>Matthias, Jennifer</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Lopez, Luz</t>
+  </si>
+  <si>
+    <t>Bean, Sahza</t>
+  </si>
+  <si>
+    <t>Avina, Adam</t>
+  </si>
+  <si>
+    <t>Gilkey, Kamen</t>
+  </si>
+  <si>
+    <t>al-Ansari, Nazeema</t>
+  </si>
+  <si>
+    <t>Chang, Alexander</t>
+  </si>
+  <si>
+    <t>Anderstrom, Krysta</t>
+  </si>
+  <si>
+    <t>Duarte, Alejandra</t>
+  </si>
+  <si>
+    <t>Lerma, Cesar</t>
+  </si>
+  <si>
+    <t>al-Jabbour, Sireen</t>
+  </si>
+  <si>
+    <t>Spetsas, Anthony</t>
+  </si>
+  <si>
+    <t>Pineda, Allexis</t>
+  </si>
+  <si>
+    <t>Lamas, Darshae</t>
+  </si>
+  <si>
+    <t>al-Shahidi, Waseema</t>
+  </si>
+  <si>
+    <t>Brough, Tylor</t>
+  </si>
+  <si>
+    <t>Beyene, Ronnica</t>
+  </si>
+  <si>
+    <t>el-Ghazi, Rasheeqa</t>
+  </si>
+  <si>
+    <t>el-Asad, Haamid</t>
+  </si>
+  <si>
+    <t>Camack, Alysha</t>
+  </si>
+  <si>
+    <t>Gibson, Bradley</t>
+  </si>
+  <si>
+    <t>Yamamoto, Julian</t>
+  </si>
+  <si>
+    <t>O'Brien, Josh</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Aleman, Kimberly</t>
+  </si>
+  <si>
+    <t>Valadez, Diego</t>
+  </si>
+  <si>
+    <t>Bain, Steven</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Martinez Serrano, Daniel</t>
+  </si>
+  <si>
+    <t>Apodaca Cordova, Kristie</t>
+  </si>
+  <si>
+    <t>Toledo, Seth</t>
+  </si>
+  <si>
+    <t>Gonzalez, Jordan</t>
+  </si>
+  <si>
+    <t>Nash, Bhewattie</t>
+  </si>
+  <si>
+    <t>Bost, Gabrielle</t>
+  </si>
+  <si>
+    <t>el-Amer, Waleed</t>
+  </si>
+  <si>
+    <t>Rivera, Miriam</t>
+  </si>
+  <si>
+    <t>Garcia, Serenity</t>
+  </si>
+  <si>
+    <t>Bonner, Amanda</t>
+  </si>
+  <si>
+    <t>White, Brendan</t>
+  </si>
+  <si>
+    <t>Lumsden, Tyler</t>
+  </si>
+  <si>
+    <t>al-Diab, Abdul Jabbaar</t>
+  </si>
+  <si>
+    <t>Keelick, Mareno</t>
+  </si>
+  <si>
+    <t>Delarosa, Justine</t>
+  </si>
+  <si>
+    <t>el-Soliman, Ghazaala</t>
+  </si>
+  <si>
+    <t>Gramm, Sheila</t>
+  </si>
+  <si>
+    <t>Gibbs, Bobby</t>
+  </si>
+  <si>
+    <t>Marion, Kaileia</t>
+  </si>
+  <si>
+    <t>Chretien, Danica</t>
+  </si>
+  <si>
+    <t>Yilma, Jaisean</t>
+  </si>
+  <si>
+    <t>Zahn, Richard</t>
+  </si>
+  <si>
+    <t>Gowda, Joshua</t>
+  </si>
+  <si>
+    <t>Mayes, Danielle</t>
+  </si>
+  <si>
+    <t>Magat, Andrew</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>el-Soltani, Abdul Noor</t>
+  </si>
+  <si>
+    <t>Nuanes, Michelle</t>
+  </si>
+  <si>
+    <t>Teka, Najuka</t>
+  </si>
+  <si>
+    <t>Pena, Jordan</t>
+  </si>
+  <si>
+    <t>Espinosa, Lauren</t>
+  </si>
+  <si>
+    <t>Enriquez, Ana</t>
+  </si>
+  <si>
+    <t>Torres, Benjamin</t>
+  </si>
+  <si>
+    <t>Balderrama, Michael</t>
+  </si>
+  <si>
+    <t>Cooper, Mikhaila</t>
+  </si>
+  <si>
+    <t>Shihadeh, Nadira</t>
+  </si>
+  <si>
+    <t>Holt, Lucy</t>
+  </si>
+  <si>
+    <t>al-Ghazi, Imraan</t>
+  </si>
+  <si>
+    <t>Lagasca, Troy</t>
+  </si>
+  <si>
+    <t>Crum, Mariah</t>
+  </si>
+  <si>
+    <t>Moore, Tamara</t>
+  </si>
+  <si>
+    <t>Casey, Kayla</t>
+  </si>
+  <si>
+    <t>Cobb, Jorden</t>
+  </si>
+  <si>
+    <t>Murray, Jennifer</t>
+  </si>
+  <si>
+    <t>Ibarra, Ernesto</t>
+  </si>
+  <si>
+    <t>Finney, Isaiah</t>
+  </si>
+  <si>
+    <t>al-Farra, Jameel</t>
+  </si>
+  <si>
+    <t>Summa, Cody</t>
+  </si>
+  <si>
+    <t>Cochran, Matthew</t>
+  </si>
+  <si>
+    <t>Tran, Yvonne</t>
+  </si>
+  <si>
+    <t>al-Laham, Tuhfa</t>
+  </si>
+  <si>
+    <t>Owens, Allysa</t>
+  </si>
+  <si>
+    <t>Davis, Erin</t>
+  </si>
+  <si>
+    <t>Jurado, Tisha</t>
+  </si>
+  <si>
+    <t>Maclellan, Ariana</t>
+  </si>
+  <si>
+    <t>el-Ahmad, Amaan</t>
+  </si>
+  <si>
+    <t>al-Hamidi, Mufliha</t>
+  </si>
+  <si>
+    <t>Hutcheson, Twanna</t>
+  </si>
+  <si>
+    <t>Kavorkian, Shon</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count of name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -772,6 +795,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -794,15 +818,2356 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matus Stanko" refreshedDate="45963.630097106485" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="200" xr:uid="{895C622A-3280-DA4D-AD8B-E0C7C0C63E2F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I201" sheet="Sheet 1"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="sex" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="evote" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="0"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="dob" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1922-10-14T00:00:00" maxDate="2005-01-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="zip" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="education" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="citizenship" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="marital_status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="party" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Green"/>
+        <s v="Red"/>
+        <s v="Invalid vote"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="200">
+  <r>
+    <s v="el-Baig, Hawraa"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1992-03-14T00:00:00"/>
+    <s v="2100"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Del Rosario, Jacqueline"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1989-08-31T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Benavides, Rosemerry"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1934-06-22T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Poland"/>
+    <s v="Divorced"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Yeddanapudy, Natalie"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1988-06-02T00:00:00"/>
+    <s v="2100"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Bolivia"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ramirez-Moran, Jose"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1965-03-07T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dearing, James"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1985-08-16T00:00:00"/>
+    <s v="2100"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Johnson, Tonio"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1972-04-19T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Syria"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Easley, Calli"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1966-03-02T00:00:00"/>
+    <s v="2400"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Smith, Savannah"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1999-01-28T00:00:00"/>
+    <s v="2100"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Massarotti, Jared"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1959-05-31T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Yussufu, Tashara"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1988-02-24T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Masingale, Colton"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1976-11-01T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cotton, Brittney"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1999-06-21T00:00:00"/>
+    <s v="2300"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Herrera, Rachelle"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1958-08-07T00:00:00"/>
+    <s v="2400"/>
+    <s v="Short cycle higher education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Franz, Gregory"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1927-03-01T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Widowed"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Santillanes, Shani"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1996-05-06T00:00:00"/>
+    <s v="2400"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Bashir, Awaatif"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1969-02-08T00:00:00"/>
+    <s v="2400"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Apineru, Arshia"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1995-08-29T00:00:00"/>
+    <s v="2300"/>
+    <s v="Not stated"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Worthy, Maryan"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="2000-06-12T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Rindy, Tessa"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1982-08-04T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Brown, Terryle"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1991-09-18T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Luzardo, Estela"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1969-03-07T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Schurr, Charlotte"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="2000-02-01T00:00:00"/>
+    <s v="2200"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="el-Irani, Ayyoob"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1970-04-27T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Syria"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ironwing, Sonny"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1980-05-06T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Pae, Jordan"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1985-05-25T00:00:00"/>
+    <s v="2200"/>
+    <s v="Short cycle higher education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Sohn, Kari"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1969-11-22T00:00:00"/>
+    <s v="2300"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="el-Satter, Nadeem"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1972-06-20T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Hammad, Salma"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1955-07-30T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Sweden"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Perez, Westen"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="2002-06-02T00:00:00"/>
+    <s v="2300"/>
+    <s v="Not stated"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Fernandez Dela Torre, Sabrina"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1958-12-02T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="el-Haq, Sadeeda"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1975-08-19T00:00:00"/>
+    <s v="2300"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Thompson, Rocky"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1981-04-05T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Curry, Mische"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1992-06-02T00:00:00"/>
+    <s v="2100"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Smith, Courtney"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1941-10-07T00:00:00"/>
+    <s v="2100"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Bosnia and Herzegovina"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Camacho, Andre"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1951-04-16T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Widowed"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Ortiz, Chloe"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1922-10-14T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Widowed"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Fern, Mikkel"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1970-10-05T00:00:00"/>
+    <s v="2300"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Lopez Murillo, Giovanni"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1999-12-11T00:00:00"/>
+    <s v="2200"/>
+    <s v="Not stated"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Rabbani, Abdul Khaliq"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1990-08-26T00:00:00"/>
+    <s v="2100"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Tharpe, Vivian"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1976-03-21T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Mostafa, Shaafi"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1974-05-16T00:00:00"/>
+    <s v="2400"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Edman, Oluwademilade"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1982-10-10T00:00:00"/>
+    <s v="2200"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bruce, Sasha"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1967-07-15T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mauldin, Mary"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1977-08-17T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Valdez, Briana"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1960-03-06T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Nguyen, Bryan"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1947-09-11T00:00:00"/>
+    <s v="2200"/>
+    <s v="Short cycle higher education"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Sayed, Saqr"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1999-05-13T00:00:00"/>
+    <s v="2400"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Ebrahimi, Rashaad"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1994-05-31T00:00:00"/>
+    <s v="2300"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Olveda Madrid, Felix"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1991-03-22T00:00:00"/>
+    <s v="2100"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Rivera, Julio"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1969-04-24T00:00:00"/>
+    <s v="2200"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Weiss, Lindzey"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1950-03-01T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Debenedittis, Isabella"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1942-09-26T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Fischer, Mahyar"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1950-10-23T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Root, Alanna"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1987-05-03T00:00:00"/>
+    <s v="2400"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Moreno, Javier"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1963-07-11T00:00:00"/>
+    <s v="2400"/>
+    <s v="Short cycle higher education"/>
+    <s v="Pakistan"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Hilterbrand, David"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1995-02-02T00:00:00"/>
+    <s v="2100"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Tewelde, Ashley"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="2002-08-22T00:00:00"/>
+    <s v="2300"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Wilcox, Daniel"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1964-07-26T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cook, Taylor"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1984-12-09T00:00:00"/>
+    <s v="2200"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="al-Mahfouz, Aarif"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="2002-10-12T00:00:00"/>
+    <s v="2200"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Bell, Trysten"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1965-08-01T00:00:00"/>
+    <s v="2400"/>
+    <s v="Masters programmes"/>
+    <s v="Iceland"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Hamlet, Tyler"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1937-02-22T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Widowed"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Burnett, Dandre"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1991-11-30T00:00:00"/>
+    <s v="2100"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Owens, Michael"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1950-08-08T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Oster, Maria"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1975-06-02T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Horn, Joshua"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1974-05-03T00:00:00"/>
+    <s v="2400"/>
+    <s v="Short cycle higher education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Vigil, Julia"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1984-04-29T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="India"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Androshchuk, Samuel"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1977-06-01T00:00:00"/>
+    <s v="2400"/>
+    <s v="Bachelors programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bluford, Chelsa"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1973-07-06T00:00:00"/>
+    <s v="2200"/>
+    <s v="Short cycle higher education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Billie, Traivon"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1981-11-30T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Boden, Tyler"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1941-10-06T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Syria"/>
+    <s v="Widowed"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Doud, Shabaan"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1991-09-27T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gebre-Michael, Christoffer"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1965-10-25T00:00:00"/>
+    <s v="2400"/>
+    <s v="PhD programmes"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mcdonnell, Levi"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1971-08-23T00:00:00"/>
+    <s v="2300"/>
+    <s v="Bachelors programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="al-Majid, Saafiyya"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1977-03-04T00:00:00"/>
+    <s v="2400"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Malick, Emily"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1988-04-22T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Garcia, Selena"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1981-11-30T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Ursich, Zachary"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1936-11-23T00:00:00"/>
+    <s v="2300"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Robb, Kelsie"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1975-01-23T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Weinmeister, Emma"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1966-03-01T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Wakefield, Sabrina"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1963-07-29T00:00:00"/>
+    <s v="2400"/>
+    <s v="Short cycle higher education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Roberts, Dillon"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1975-09-03T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cunningham, Robel"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1988-12-24T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Habib, Shaheera"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1978-05-25T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dittloff, Marc"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1962-11-09T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Shakir, Uthmaa N"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1984-12-26T00:00:00"/>
+    <s v="2300"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="O Reilly, Javkhlan"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1935-05-19T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Widowed"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Castaneda, Karen"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1975-08-05T00:00:00"/>
+    <s v="2400"/>
+    <s v="Short cycle higher education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Schuhrke, Karli"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1968-01-17T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ruiz, Michaeli"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1948-06-03T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Terrell, Miguel"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1980-09-28T00:00:00"/>
+    <s v="2100"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="USA"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Weiss, Ryan"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1962-10-03T00:00:00"/>
+    <s v="2200"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Edwards, Seth"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="2000-01-12T00:00:00"/>
+    <s v="2400"/>
+    <s v="Upper secondary education"/>
+    <s v="Egypt"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Coley, Miles"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1987-09-13T00:00:00"/>
+    <s v="2400"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="al-Mir, Nisma"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1976-04-14T00:00:00"/>
+    <s v="2300"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Youngblood, Christian"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1968-10-16T00:00:00"/>
+    <s v="2400"/>
+    <s v="Bachelors programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Islamzai, Kelly"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1994-09-24T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Brooks, Bethel"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1952-05-26T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kimrey, Anthony"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1953-02-13T00:00:00"/>
+    <s v="2300"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Hill, Joseph"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1972-10-12T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="al-Jabour, Huwaida"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1959-06-15T00:00:00"/>
+    <s v="2300"/>
+    <s v="Short cycle higher education"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Glasco, Chelsea"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1982-07-24T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Avila, Shannon"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1997-07-09T00:00:00"/>
+    <s v="2100"/>
+    <s v="Not stated"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Tribble, Enrique"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="2004-04-24T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Crampton, Brittani"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1972-08-25T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Vicknair, Joseph"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1952-12-11T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Lakobong, Andreas"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1981-07-04T00:00:00"/>
+    <s v="2400"/>
+    <s v="Short cycle higher education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Farooq, Fidda"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1969-02-20T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Croatia"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Roseveare, Eunice"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1994-10-13T00:00:00"/>
+    <s v="2400"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Brown, Eemoni"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1965-01-11T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="al-Abood, Shahaada"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1991-08-22T00:00:00"/>
+    <s v="2400"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Harris, Gabrielle"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1979-03-22T00:00:00"/>
+    <s v="2400"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Begay, Roman"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1961-10-13T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Needham, Kevin"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1973-02-17T00:00:00"/>
+    <s v="2300"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nadiadi, Velia"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1979-09-09T00:00:00"/>
+    <s v="2100"/>
+    <s v="PhD programmes"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Matthias, Jennifer"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1968-02-27T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Bulgaria"/>
+    <s v="Never married"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Lopez, Luz"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1948-02-19T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bean, Sahza"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1999-12-20T00:00:00"/>
+    <s v="2400"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Avina, Adam"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="2002-09-13T00:00:00"/>
+    <s v="2100"/>
+    <s v="Bachelors programmes"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gilkey, Kamen"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1957-10-28T00:00:00"/>
+    <s v="2400"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Ansari, Nazeema"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1990-11-22T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Chang, Alexander"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1952-04-20T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Widowed"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Anderstrom, Krysta"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1960-01-26T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Duarte, Alejandra"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1969-01-20T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Lerma, Cesar"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1960-11-10T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="al-Jabbour, Sireen"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1963-04-25T00:00:00"/>
+    <s v="2200"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Spetsas, Anthony"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1969-04-21T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Pineda, Allexis"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1952-05-30T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Lamas, Darshae"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1998-07-06T00:00:00"/>
+    <s v="2200"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Shahidi, Waseema"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1971-07-14T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Brough, Tylor"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1963-01-02T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Beyene, Ronnica"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1984-02-10T00:00:00"/>
+    <s v="2400"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="el-Ghazi, Rasheeqa"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1979-07-11T00:00:00"/>
+    <s v="2400"/>
+    <s v="Short cycle higher education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="el-Asad, Haamid"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1965-10-02T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Camack, Alysha"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1956-02-02T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gibson, Bradley"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1976-06-22T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Yamamoto, Julian"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1974-01-20T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="O'Brien, Josh"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1988-09-25T00:00:00"/>
+    <s v="2400"/>
+    <s v="Short cycle higher education"/>
+    <s v="Norway"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Aleman, Kimberly"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1976-06-14T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Valadez, Diego"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1926-05-28T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Bain, Steven"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1979-01-21T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Nepal"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Martinez Serrano, Daniel"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1963-04-24T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Apodaca Cordova, Kristie"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1998-06-01T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Toledo, Seth"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1947-11-14T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gonzalez, Jordan"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1967-08-09T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nash, Bhewattie"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1978-06-25T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Bost, Gabrielle"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1974-08-23T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="el-Amer, Waleed"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1969-01-26T00:00:00"/>
+    <s v="2200"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Rivera, Miriam"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1959-01-25T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Widowed"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Garcia, Serenity"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="2000-05-26T00:00:00"/>
+    <s v="2200"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Bonner, Amanda"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1951-12-30T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="White, Brendan"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1954-08-25T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Syria"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Lumsden, Tyler"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1959-11-20T00:00:00"/>
+    <s v="2300"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Widowed"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="al-Diab, Abdul Jabbaar"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1993-06-25T00:00:00"/>
+    <s v="2100"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Keelick, Mareno"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1968-10-28T00:00:00"/>
+    <s v="2100"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Delarosa, Justine"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1961-11-30T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="el-Soliman, Ghazaala"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1985-11-06T00:00:00"/>
+    <s v="2200"/>
+    <s v="Masters programmes"/>
+    <s v="Poland"/>
+    <s v="Never married"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gramm, Sheila"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1994-03-26T00:00:00"/>
+    <s v="2100"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gibbs, Bobby"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1980-12-25T00:00:00"/>
+    <s v="2300"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Marion, Kaileia"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="2003-01-26T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Chretien, Danica"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1999-07-02T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Yilma, Jaisean"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1958-08-02T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Zahn, Richard"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1979-09-13T00:00:00"/>
+    <s v="2100"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gowda, Joshua"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1970-06-05T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Bulgaria"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mayes, Danielle"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1985-01-28T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Magat, Andrew"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1941-09-02T00:00:00"/>
+    <s v="2300"/>
+    <s v="Primary education"/>
+    <s v="Stateless"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="el-Soltani, Abdul Noor"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1970-01-20T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Nuanes, Michelle"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1984-09-25T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Teka, Najuka"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1992-04-09T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Pena, Jordan"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1992-11-22T00:00:00"/>
+    <s v="2200"/>
+    <s v="Bachelors programmes"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Espinosa, Lauren"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1953-12-14T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Enriquez, Ana"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1952-11-19T00:00:00"/>
+    <s v="2400"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Torres, Benjamin"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1999-03-01T00:00:00"/>
+    <s v="2100"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Balderrama, Michael"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1976-02-26T00:00:00"/>
+    <s v="2300"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cooper, Mikhaila"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1949-05-04T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Shihadeh, Nadira"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="2002-09-15T00:00:00"/>
+    <s v="2200"/>
+    <s v="Short cycle higher education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Holt, Lucy"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1975-07-31T00:00:00"/>
+    <s v="2200"/>
+    <s v="Not stated"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="al-Ghazi, Imraan"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1960-10-26T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Lagasca, Troy"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1996-05-25T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Crum, Mariah"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1983-06-25T00:00:00"/>
+    <s v="2100"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Moore, Tamara"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1990-05-21T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Casey, Kayla"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1972-04-02T00:00:00"/>
+    <s v="2200"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cobb, Jorden"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="2002-11-26T00:00:00"/>
+    <s v="2200"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Murray, Jennifer"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1974-11-24T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Ibarra, Ernesto"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1981-02-12T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Finney, Isaiah"/>
+    <s v="Male"/>
+    <x v="1"/>
+    <d v="1981-05-27T00:00:00"/>
+    <s v="2300"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="al-Farra, Jameel"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1936-11-09T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Widowed"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Summa, Cody"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1983-08-23T00:00:00"/>
+    <s v="2300"/>
+    <s v="Upper secondary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cochran, Matthew"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1941-05-12T00:00:00"/>
+    <s v="2100"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Tran, Yvonne"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1976-11-13T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Laham, Tuhfa"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1960-01-18T00:00:00"/>
+    <s v="2100"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Owens, Allysa"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1968-09-24T00:00:00"/>
+    <s v="2300"/>
+    <s v="PhD programmes"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Davis, Erin"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1971-08-22T00:00:00"/>
+    <s v="2400"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Jurado, Tisha"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1984-06-26T00:00:00"/>
+    <s v="2100"/>
+    <s v="Vocational bachelors educations"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Maclellan, Ariana"/>
+    <s v="Female"/>
+    <x v="1"/>
+    <d v="1997-03-18T00:00:00"/>
+    <s v="2100"/>
+    <s v="Masters programmes"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="el-Ahmad, Amaan"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1990-08-24T00:00:00"/>
+    <s v="2300"/>
+    <s v="Vocational Education and Training (VET)"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="al-Hamidi, Mufliha"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="2004-12-31T00:00:00"/>
+    <s v="2200"/>
+    <s v="Primary education"/>
+    <s v="Denmark"/>
+    <s v="Never married"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Hutcheson, Twanna"/>
+    <s v="Female"/>
+    <x v="0"/>
+    <d v="1996-05-29T00:00:00"/>
+    <s v="2200"/>
+    <s v="Bachelors programmes"/>
+    <s v="Denmark"/>
+    <s v="Married/separated"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Kavorkian, Shon"/>
+    <s v="Male"/>
+    <x v="0"/>
+    <d v="1958-08-10T00:00:00"/>
+    <s v="2300"/>
+    <s v="Short cycle higher education"/>
+    <s v="Denmark"/>
+    <s v="Divorced"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07A78FC6-6768-7743-B0DD-768ED3120035}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1083,14 +3448,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59AD90A-EA16-5949-A641-69C7625A1943}">
+  <dimension ref="A3:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>86</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>48</v>
+      </c>
+      <c r="E5" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="4">
+        <v>127</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>70</v>
+      </c>
+      <c r="E7" s="4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="A1:I201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,17 +3582,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>33677</v>
       </c>
       <c r="E2" t="s">
@@ -1148,17 +3611,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>32751</v>
       </c>
       <c r="E3" t="s">
@@ -1177,17 +3640,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>12592</v>
       </c>
       <c r="E4" t="s">
@@ -1206,17 +3669,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>32296</v>
       </c>
       <c r="E5" t="s">
@@ -1235,17 +3698,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>23808</v>
       </c>
       <c r="E6" t="s">
@@ -1264,17 +3727,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>31275</v>
       </c>
       <c r="E7" t="s">
@@ -1293,17 +3756,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>26408</v>
       </c>
       <c r="E8" t="s">
@@ -1322,17 +3785,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="n">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>24168</v>
       </c>
       <c r="E9" t="s">
@@ -1351,17 +3814,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="n">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>36188</v>
       </c>
       <c r="E10" t="s">
@@ -1380,17 +3843,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="n">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>21701</v>
       </c>
       <c r="E11" t="s">
@@ -1409,17 +3872,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="n">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <v>32197</v>
       </c>
       <c r="E12" t="s">
@@ -1438,17 +3901,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>28065</v>
       </c>
       <c r="E13" t="s">
@@ -1467,17 +3930,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
         <v>36332</v>
       </c>
       <c r="E14" t="s">
@@ -1496,17 +3959,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="n">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <v>21404</v>
       </c>
       <c r="E15" t="s">
@@ -1525,17 +3988,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1" t="n">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
         <v>9922</v>
       </c>
       <c r="E16" t="s">
@@ -1554,17 +4017,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="1">
         <v>35191</v>
       </c>
       <c r="E17" t="s">
@@ -1583,17 +4046,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1" t="n">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
         <v>25242</v>
       </c>
       <c r="E18" t="s">
@@ -1612,17 +4075,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>34940</v>
       </c>
       <c r="E19" t="s">
@@ -1641,17 +4104,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="n">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
         <v>36689</v>
       </c>
       <c r="E20" t="s">
@@ -1670,17 +4133,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="1">
         <v>30167</v>
       </c>
       <c r="E21" t="s">
@@ -1699,17 +4162,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="n">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
         <v>33499</v>
       </c>
       <c r="E22" t="s">
@@ -1728,17 +4191,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="n">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
         <v>25269</v>
       </c>
       <c r="E23" t="s">
@@ -1757,17 +4220,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="n">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
         <v>36557</v>
       </c>
       <c r="E24" t="s">
@@ -1786,17 +4249,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="n">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
         <v>25685</v>
       </c>
       <c r="E25" t="s">
@@ -1815,17 +4278,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="n">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
         <v>29347</v>
       </c>
       <c r="E26" t="s">
@@ -1844,17 +4307,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="1">
         <v>31192</v>
       </c>
       <c r="E27" t="s">
@@ -1873,17 +4336,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>59</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1" t="n">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
         <v>25529</v>
       </c>
       <c r="E28" t="s">
@@ -1902,17 +4365,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>60</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="n">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
         <v>26470</v>
       </c>
       <c r="E29" t="s">
@@ -1931,17 +4394,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>61</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="1">
         <v>20300</v>
       </c>
       <c r="E30" t="s">
@@ -1960,17 +4423,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1" t="n">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
         <v>37409</v>
       </c>
       <c r="E31" t="s">
@@ -1989,17 +4452,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="1">
         <v>21521</v>
       </c>
       <c r="E32" t="s">
@@ -2018,17 +4481,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="1">
         <v>27625</v>
       </c>
       <c r="E33" t="s">
@@ -2047,17 +4510,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="1">
         <v>29681</v>
       </c>
       <c r="E34" t="s">
@@ -2076,17 +4539,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>67</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="1">
         <v>33757</v>
       </c>
       <c r="E35" t="s">
@@ -2105,17 +4568,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="n">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
         <v>15256</v>
       </c>
       <c r="E36" t="s">
@@ -2134,17 +4597,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>70</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="1">
         <v>18734</v>
       </c>
       <c r="E37" t="s">
@@ -2163,17 +4626,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>71</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1" t="n">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
         <v>8323</v>
       </c>
       <c r="E38" t="s">
@@ -2192,17 +4655,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
       </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1" t="n">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
         <v>25846</v>
       </c>
       <c r="E39" t="s">
@@ -2221,17 +4684,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="1">
         <v>36505</v>
       </c>
       <c r="E40" t="s">
@@ -2250,17 +4713,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="1">
         <v>33111</v>
       </c>
       <c r="E41" t="s">
@@ -2279,17 +4742,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="1">
         <v>27840</v>
       </c>
       <c r="E42" t="s">
@@ -2308,17 +4771,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>76</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
       </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1" t="n">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
         <v>27165</v>
       </c>
       <c r="E43" t="s">
@@ -2337,17 +4800,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>77</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1" t="n">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
         <v>30234</v>
       </c>
       <c r="E44" t="s">
@@ -2366,17 +4829,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>78</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="1" t="n">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
         <v>24668</v>
       </c>
       <c r="E45" t="s">
@@ -2395,17 +4858,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>79</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46" s="1">
         <v>28354</v>
       </c>
       <c r="E46" t="s">
@@ -2424,17 +4887,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>80</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1" t="n">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
         <v>21981</v>
       </c>
       <c r="E47" t="s">
@@ -2453,17 +4916,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>81</v>
       </c>
       <c r="B48" t="s">
         <v>27</v>
       </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="n">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
         <v>17421</v>
       </c>
       <c r="E48" t="s">
@@ -2482,17 +4945,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>82</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
       </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1" t="n">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
         <v>36293</v>
       </c>
       <c r="E49" t="s">
@@ -2511,17 +4974,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>83</v>
       </c>
       <c r="B50" t="s">
         <v>27</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="1">
         <v>34485</v>
       </c>
       <c r="E50" t="s">
@@ -2540,17 +5003,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>84</v>
       </c>
       <c r="B51" t="s">
         <v>27</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D51" s="1">
         <v>33319</v>
       </c>
       <c r="E51" t="s">
@@ -2569,17 +5032,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>85</v>
       </c>
       <c r="B52" t="s">
         <v>27</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D52" s="1">
         <v>25317</v>
       </c>
       <c r="E52" t="s">
@@ -2598,17 +5061,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>86</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1" t="n">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
         <v>18323</v>
       </c>
       <c r="E53" t="s">
@@ -2627,17 +5090,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>87</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1" t="n">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
         <v>15610</v>
       </c>
       <c r="E54" t="s">
@@ -2656,17 +5119,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>88</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
       </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="n">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
         <v>18559</v>
       </c>
       <c r="E55" t="s">
@@ -2685,17 +5148,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>89</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="n">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
         <v>31900</v>
       </c>
       <c r="E56" t="s">
@@ -2714,17 +5177,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>90</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
       </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1" t="n">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
         <v>23203</v>
       </c>
       <c r="E57" t="s">
@@ -2743,17 +5206,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>92</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
       </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1" t="n">
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
         <v>34732</v>
       </c>
       <c r="E58" t="s">
@@ -2772,17 +5235,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>93</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D59" s="1">
         <v>37490</v>
       </c>
       <c r="E59" t="s">
@@ -2801,17 +5264,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>94</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
       </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1" t="n">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
         <v>23584</v>
       </c>
       <c r="E60" t="s">
@@ -2830,17 +5293,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>95</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" s="1">
         <v>31025</v>
       </c>
       <c r="E61" t="s">
@@ -2859,17 +5322,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>96</v>
       </c>
       <c r="B62" t="s">
         <v>27</v>
       </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1" t="n">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
         <v>37541</v>
       </c>
       <c r="E62" t="s">
@@ -2888,17 +5351,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>97</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1" t="n">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
         <v>23955</v>
       </c>
       <c r="E63" t="s">
@@ -2917,17 +5380,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>99</v>
       </c>
       <c r="B64" t="s">
         <v>27</v>
       </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" s="1" t="n">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
         <v>13568</v>
       </c>
       <c r="E64" t="s">
@@ -2946,17 +5409,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>100</v>
       </c>
       <c r="B65" t="s">
         <v>27</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D65" s="1">
         <v>33572</v>
       </c>
       <c r="E65" t="s">
@@ -2975,17 +5438,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>101</v>
       </c>
       <c r="B66" t="s">
         <v>27</v>
       </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" s="1" t="n">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
         <v>18483</v>
       </c>
       <c r="E66" t="s">
@@ -3004,17 +5467,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>102</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1" t="n">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
         <v>27547</v>
       </c>
       <c r="E67" t="s">
@@ -3033,17 +5496,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>103</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="D68" s="1">
         <v>27152</v>
       </c>
       <c r="E68" t="s">
@@ -3062,17 +5525,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>104</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="1" t="n">
+      <c r="D69" s="1">
         <v>30801</v>
       </c>
       <c r="E69" t="s">
@@ -3091,17 +5554,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>106</v>
       </c>
       <c r="B70" t="s">
         <v>27</v>
       </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1" t="n">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
         <v>28277</v>
       </c>
       <c r="E70" t="s">
@@ -3120,17 +5583,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>108</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1" t="n">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
         <v>26851</v>
       </c>
       <c r="E71" t="s">
@@ -3149,17 +5612,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>109</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
       </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1" t="n">
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
         <v>29920</v>
       </c>
       <c r="E72" t="s">
@@ -3178,17 +5641,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>110</v>
       </c>
       <c r="B73" t="s">
         <v>27</v>
       </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" s="1" t="n">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
         <v>15255</v>
       </c>
       <c r="E73" t="s">
@@ -3207,17 +5670,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>111</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" s="1" t="n">
+      <c r="D74" s="1">
         <v>33508</v>
       </c>
       <c r="E74" t="s">
@@ -3236,17 +5699,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>112</v>
       </c>
       <c r="B75" t="s">
         <v>27</v>
       </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" s="1" t="n">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1">
         <v>24040</v>
       </c>
       <c r="E75" t="s">
@@ -3265,17 +5728,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>114</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
       </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1" t="n">
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
         <v>26168</v>
       </c>
       <c r="E76" t="s">
@@ -3294,17 +5757,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>115</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" s="1" t="n">
+      <c r="D77" s="1">
         <v>28188</v>
       </c>
       <c r="E77" t="s">
@@ -3323,17 +5786,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>116</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78" s="1" t="n">
+      <c r="D78" s="1">
         <v>32255</v>
       </c>
       <c r="E78" t="s">
@@ -3352,17 +5815,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>117</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
       </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1" t="n">
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
         <v>29920</v>
       </c>
       <c r="E79" t="s">
@@ -3381,17 +5844,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>118</v>
       </c>
       <c r="B80" t="s">
         <v>27</v>
       </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1" t="n">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
         <v>13477</v>
       </c>
       <c r="E80" t="s">
@@ -3410,17 +5873,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>119</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
       </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1" t="n">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
         <v>27417</v>
       </c>
       <c r="E81" t="s">
@@ -3439,17 +5902,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>120</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1" t="n">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
         <v>24167</v>
       </c>
       <c r="E82" t="s">
@@ -3468,17 +5931,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>121</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
       </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" s="1" t="n">
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
         <v>23221</v>
       </c>
       <c r="E83" t="s">
@@ -3497,17 +5960,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>122</v>
       </c>
       <c r="B84" t="s">
         <v>27</v>
       </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" s="1" t="n">
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
         <v>27640</v>
       </c>
       <c r="E84" t="s">
@@ -3526,17 +5989,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>123</v>
       </c>
       <c r="B85" t="s">
         <v>27</v>
       </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" s="1" t="n">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
         <v>32501</v>
       </c>
       <c r="E85" t="s">
@@ -3555,17 +6018,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>124</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
       </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1" t="n">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
         <v>28635</v>
       </c>
       <c r="E86" t="s">
@@ -3584,17 +6047,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>125</v>
       </c>
       <c r="B87" t="s">
         <v>27</v>
       </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1" t="n">
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
         <v>22959</v>
       </c>
       <c r="E87" t="s">
@@ -3613,17 +6076,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>126</v>
       </c>
       <c r="B88" t="s">
         <v>27</v>
       </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" s="1" t="n">
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
         <v>31042</v>
       </c>
       <c r="E88" t="s">
@@ -3642,17 +6105,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>127</v>
       </c>
       <c r="B89" t="s">
         <v>27</v>
       </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" s="1" t="n">
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
         <v>12923</v>
       </c>
       <c r="E89" t="s">
@@ -3671,17 +6134,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>128</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
       </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" s="1" t="n">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
         <v>27611</v>
       </c>
       <c r="E90" t="s">
@@ -3700,17 +6163,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>129</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>1</v>
       </c>
-      <c r="D91" s="1" t="n">
+      <c r="D91" s="1">
         <v>24854</v>
       </c>
       <c r="E91" t="s">
@@ -3729,17 +6192,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>130</v>
       </c>
       <c r="B92" t="s">
         <v>27</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>1</v>
       </c>
-      <c r="D92" s="1" t="n">
+      <c r="D92" s="1">
         <v>17687</v>
       </c>
       <c r="E92" t="s">
@@ -3758,17 +6221,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>131</v>
       </c>
       <c r="B93" t="s">
         <v>27</v>
       </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1" t="n">
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
         <v>29492</v>
       </c>
       <c r="E93" t="s">
@@ -3787,17 +6250,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>133</v>
       </c>
       <c r="B94" t="s">
         <v>27</v>
       </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" s="1" t="n">
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
         <v>22922</v>
       </c>
       <c r="E94" t="s">
@@ -3816,17 +6279,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>134</v>
       </c>
       <c r="B95" t="s">
         <v>27</v>
       </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1" t="n">
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
         <v>36537</v>
       </c>
       <c r="E95" t="s">
@@ -3845,17 +6308,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>136</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>1</v>
       </c>
-      <c r="D96" s="1" t="n">
+      <c r="D96" s="1">
         <v>32033</v>
       </c>
       <c r="E96" t="s">
@@ -3874,17 +6337,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>137</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
       </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" s="1" t="n">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
         <v>27864</v>
       </c>
       <c r="E97" t="s">
@@ -3903,17 +6366,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>138</v>
       </c>
       <c r="B98" t="s">
         <v>27</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>1</v>
       </c>
-      <c r="D98" s="1" t="n">
+      <c r="D98" s="1">
         <v>25127</v>
       </c>
       <c r="E98" t="s">
@@ -3932,17 +6395,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>139</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99" s="1" t="n">
+      <c r="D99" s="1">
         <v>34601</v>
       </c>
       <c r="E99" t="s">
@@ -3961,17 +6424,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>140</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
       </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" s="1" t="n">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
         <v>19140</v>
       </c>
       <c r="E100" t="s">
@@ -3990,17 +6453,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>141</v>
       </c>
       <c r="B101" t="s">
         <v>27</v>
       </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" s="1" t="n">
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
         <v>19403</v>
       </c>
       <c r="E101" t="s">
@@ -4019,17 +6482,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>142</v>
       </c>
       <c r="B102" t="s">
         <v>27</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>1</v>
       </c>
-      <c r="D102" s="1" t="n">
+      <c r="D102" s="1">
         <v>26584</v>
       </c>
       <c r="E102" t="s">
@@ -4048,17 +6511,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>143</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" s="1" t="n">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
         <v>21716</v>
       </c>
       <c r="E103" t="s">
@@ -4077,17 +6540,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>144</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
       </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" s="1" t="n">
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
         <v>30156</v>
       </c>
       <c r="E104" t="s">
@@ -4106,17 +6569,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>145</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
       </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1" t="n">
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
         <v>35620</v>
       </c>
       <c r="E105" t="s">
@@ -4135,17 +6598,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>146</v>
       </c>
       <c r="B106" t="s">
         <v>27</v>
       </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" s="1" t="n">
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
         <v>38101</v>
       </c>
       <c r="E106" t="s">
@@ -4164,17 +6627,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>147</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
       </c>
-      <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" s="1" t="n">
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
         <v>26536</v>
       </c>
       <c r="E107" t="s">
@@ -4193,17 +6656,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>148</v>
       </c>
       <c r="B108" t="s">
         <v>27</v>
       </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" s="1" t="n">
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
         <v>19339</v>
       </c>
       <c r="E108" t="s">
@@ -4222,17 +6685,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>149</v>
       </c>
       <c r="B109" t="s">
         <v>27</v>
       </c>
-      <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" s="1" t="n">
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
         <v>29771</v>
       </c>
       <c r="E109" t="s">
@@ -4251,17 +6714,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>150</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
       </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" s="1" t="n">
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
         <v>25254</v>
       </c>
       <c r="E110" t="s">
@@ -4280,17 +6743,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>152</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" s="1" t="n">
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
         <v>34620</v>
       </c>
       <c r="E111" t="s">
@@ -4309,17 +6772,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>153</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
       </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" s="1" t="n">
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
         <v>23753</v>
       </c>
       <c r="E112" t="s">
@@ -4338,17 +6801,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>154</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>1</v>
       </c>
-      <c r="D113" s="1" t="n">
+      <c r="D113" s="1">
         <v>33472</v>
       </c>
       <c r="E113" t="s">
@@ -4367,17 +6830,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>155</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
       </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" s="1" t="n">
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
         <v>28936</v>
       </c>
       <c r="E114" t="s">
@@ -4396,17 +6859,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>156</v>
       </c>
       <c r="B115" t="s">
         <v>27</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>1</v>
       </c>
-      <c r="D115" s="1" t="n">
+      <c r="D115" s="1">
         <v>22567</v>
       </c>
       <c r="E115" t="s">
@@ -4425,17 +6888,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>157</v>
       </c>
       <c r="B116" t="s">
         <v>27</v>
       </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" s="1" t="n">
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
         <v>26712</v>
       </c>
       <c r="E116" t="s">
@@ -4454,17 +6917,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>158</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
       </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" s="1" t="n">
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
         <v>29107</v>
       </c>
       <c r="E117" t="s">
@@ -4483,17 +6946,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>159</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
       </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" s="1" t="n">
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
         <v>24895</v>
       </c>
       <c r="E118" t="s">
@@ -4512,17 +6975,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>161</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" s="1" t="n">
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1">
         <v>17582</v>
       </c>
       <c r="E119" t="s">
@@ -4541,17 +7004,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>162</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
-      <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" s="1" t="n">
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
         <v>36514</v>
       </c>
       <c r="E120" t="s">
@@ -4570,17 +7033,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>163</v>
       </c>
       <c r="B121" t="s">
         <v>27</v>
       </c>
-      <c r="C121" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" s="1" t="n">
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
         <v>37512</v>
       </c>
       <c r="E121" t="s">
@@ -4599,17 +7062,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>164</v>
       </c>
       <c r="B122" t="s">
         <v>27</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>1</v>
       </c>
-      <c r="D122" s="1" t="n">
+      <c r="D122" s="1">
         <v>21121</v>
       </c>
       <c r="E122" t="s">
@@ -4628,17 +7091,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>165</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
       </c>
-      <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" s="1" t="n">
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1">
         <v>33199</v>
       </c>
       <c r="E123" t="s">
@@ -4657,17 +7120,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>166</v>
       </c>
       <c r="B124" t="s">
         <v>27</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>1</v>
       </c>
-      <c r="D124" s="1" t="n">
+      <c r="D124" s="1">
         <v>19104</v>
       </c>
       <c r="E124" t="s">
@@ -4686,17 +7149,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>167</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
       </c>
-      <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" s="1" t="n">
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1">
         <v>21941</v>
       </c>
       <c r="E125" t="s">
@@ -4715,17 +7178,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>168</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
       </c>
-      <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" s="1" t="n">
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
         <v>25223</v>
       </c>
       <c r="E126" t="s">
@@ -4744,17 +7207,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>169</v>
       </c>
       <c r="B127" t="s">
         <v>27</v>
       </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" s="1" t="n">
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
         <v>22230</v>
       </c>
       <c r="E127" t="s">
@@ -4773,17 +7236,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>170</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
       </c>
-      <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" s="1" t="n">
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
         <v>23126</v>
       </c>
       <c r="E128" t="s">
@@ -4802,17 +7265,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>171</v>
       </c>
       <c r="B129" t="s">
         <v>27</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>1</v>
       </c>
-      <c r="D129" s="1" t="n">
+      <c r="D129" s="1">
         <v>25314</v>
       </c>
       <c r="E129" t="s">
@@ -4831,17 +7294,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>172</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>1</v>
       </c>
-      <c r="D130" s="1" t="n">
+      <c r="D130" s="1">
         <v>19144</v>
       </c>
       <c r="E130" t="s">
@@ -4860,17 +7323,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>173</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
       </c>
-      <c r="C131" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" s="1" t="n">
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
         <v>35982</v>
       </c>
       <c r="E131" t="s">
@@ -4889,17 +7352,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>174</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
       </c>
-      <c r="C132" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" s="1" t="n">
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1">
         <v>26128</v>
       </c>
       <c r="E132" t="s">
@@ -4918,17 +7381,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>175</v>
       </c>
       <c r="B133" t="s">
         <v>27</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1</v>
       </c>
-      <c r="D133" s="1" t="n">
+      <c r="D133" s="1">
         <v>23013</v>
       </c>
       <c r="E133" t="s">
@@ -4947,17 +7410,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>176</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>1</v>
       </c>
-      <c r="D134" s="1" t="n">
+      <c r="D134" s="1">
         <v>30722</v>
       </c>
       <c r="E134" t="s">
@@ -4976,17 +7439,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>177</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>1</v>
       </c>
-      <c r="D135" s="1" t="n">
+      <c r="D135" s="1">
         <v>29047</v>
       </c>
       <c r="E135" t="s">
@@ -5005,17 +7468,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>178</v>
       </c>
       <c r="B136" t="s">
         <v>27</v>
       </c>
-      <c r="C136" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" s="1" t="n">
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
         <v>24017</v>
       </c>
       <c r="E136" t="s">
@@ -5034,17 +7497,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>179</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
       </c>
-      <c r="C137" t="n">
-        <v>0</v>
-      </c>
-      <c r="D137" s="1" t="n">
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1">
         <v>20487</v>
       </c>
       <c r="E137" t="s">
@@ -5063,17 +7526,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>180</v>
       </c>
       <c r="B138" t="s">
         <v>27</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>1</v>
       </c>
-      <c r="D138" s="1" t="n">
+      <c r="D138" s="1">
         <v>27933</v>
       </c>
       <c r="E138" t="s">
@@ -5092,17 +7555,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>181</v>
       </c>
       <c r="B139" t="s">
         <v>27</v>
       </c>
-      <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" s="1" t="n">
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1">
         <v>27049</v>
       </c>
       <c r="E139" t="s">
@@ -5121,17 +7584,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>182</v>
       </c>
       <c r="B140" t="s">
         <v>27</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1</v>
       </c>
-      <c r="D140" s="1" t="n">
+      <c r="D140" s="1">
         <v>32411</v>
       </c>
       <c r="E140" t="s">
@@ -5150,17 +7613,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>184</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
-      <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" s="1" t="n">
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1">
         <v>27925</v>
       </c>
       <c r="E141" t="s">
@@ -5179,17 +7642,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>185</v>
       </c>
       <c r="B142" t="s">
         <v>27</v>
       </c>
-      <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" s="1" t="n">
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1">
         <v>9645</v>
       </c>
       <c r="E142" t="s">
@@ -5208,17 +7671,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>186</v>
       </c>
       <c r="B143" t="s">
         <v>27</v>
       </c>
-      <c r="C143" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" s="1" t="n">
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1">
         <v>28876</v>
       </c>
       <c r="E143" t="s">
@@ -5237,17 +7700,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>188</v>
       </c>
       <c r="B144" t="s">
         <v>27</v>
       </c>
-      <c r="C144" t="n">
-        <v>0</v>
-      </c>
-      <c r="D144" s="1" t="n">
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1">
         <v>23125</v>
       </c>
       <c r="E144" t="s">
@@ -5266,17 +7729,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>189</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>1</v>
       </c>
-      <c r="D145" s="1" t="n">
+      <c r="D145" s="1">
         <v>35947</v>
       </c>
       <c r="E145" t="s">
@@ -5295,17 +7758,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>190</v>
       </c>
       <c r="B146" t="s">
         <v>27</v>
       </c>
-      <c r="C146" t="n">
-        <v>0</v>
-      </c>
-      <c r="D146" s="1" t="n">
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1">
         <v>17485</v>
       </c>
       <c r="E146" t="s">
@@ -5324,17 +7787,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>191</v>
       </c>
       <c r="B147" t="s">
         <v>27</v>
       </c>
-      <c r="C147" t="n">
-        <v>0</v>
-      </c>
-      <c r="D147" s="1" t="n">
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1">
         <v>24693</v>
       </c>
       <c r="E147" t="s">
@@ -5353,17 +7816,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>192</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
       </c>
-      <c r="C148" t="n">
-        <v>0</v>
-      </c>
-      <c r="D148" s="1" t="n">
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1">
         <v>28666</v>
       </c>
       <c r="E148" t="s">
@@ -5382,17 +7845,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>193</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
       </c>
-      <c r="C149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" s="1" t="n">
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1">
         <v>27264</v>
       </c>
       <c r="E149" t="s">
@@ -5411,17 +7874,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>194</v>
       </c>
       <c r="B150" t="s">
         <v>27</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>1</v>
       </c>
-      <c r="D150" s="1" t="n">
+      <c r="D150" s="1">
         <v>25229</v>
       </c>
       <c r="E150" t="s">
@@ -5440,17 +7903,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>195</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
       </c>
-      <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" s="1" t="n">
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1">
         <v>21575</v>
       </c>
       <c r="E151" t="s">
@@ -5469,17 +7932,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>196</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
       </c>
-      <c r="C152" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" s="1" t="n">
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152" s="1">
         <v>36672</v>
       </c>
       <c r="E152" t="s">
@@ -5498,17 +7961,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>197</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>1</v>
       </c>
-      <c r="D153" s="1" t="n">
+      <c r="D153" s="1">
         <v>18992</v>
       </c>
       <c r="E153" t="s">
@@ -5527,17 +7990,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>198</v>
       </c>
       <c r="B154" t="s">
         <v>27</v>
       </c>
-      <c r="C154" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" s="1" t="n">
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154" s="1">
         <v>19961</v>
       </c>
       <c r="E154" t="s">
@@ -5556,17 +8019,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>199</v>
       </c>
       <c r="B155" t="s">
         <v>27</v>
       </c>
-      <c r="C155" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" s="1" t="n">
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1">
         <v>21874</v>
       </c>
       <c r="E155" t="s">
@@ -5585,17 +8048,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>200</v>
       </c>
       <c r="B156" t="s">
         <v>27</v>
       </c>
-      <c r="C156" t="n">
-        <v>0</v>
-      </c>
-      <c r="D156" s="1" t="n">
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1">
         <v>34145</v>
       </c>
       <c r="E156" t="s">
@@ -5614,17 +8077,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>201</v>
       </c>
       <c r="B157" t="s">
         <v>27</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>1</v>
       </c>
-      <c r="D157" s="1" t="n">
+      <c r="D157" s="1">
         <v>25139</v>
       </c>
       <c r="E157" t="s">
@@ -5643,17 +8106,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>202</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>1</v>
       </c>
-      <c r="D158" s="1" t="n">
+      <c r="D158" s="1">
         <v>22615</v>
       </c>
       <c r="E158" t="s">
@@ -5672,17 +8135,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>203</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
       </c>
-      <c r="C159" t="n">
-        <v>0</v>
-      </c>
-      <c r="D159" s="1" t="n">
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159" s="1">
         <v>31357</v>
       </c>
       <c r="E159" t="s">
@@ -5701,17 +8164,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>204</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
       </c>
-      <c r="C160" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" s="1" t="n">
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160" s="1">
         <v>34419</v>
       </c>
       <c r="E160" t="s">
@@ -5730,17 +8193,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>205</v>
       </c>
       <c r="B161" t="s">
         <v>27</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>1</v>
       </c>
-      <c r="D161" s="1" t="n">
+      <c r="D161" s="1">
         <v>29580</v>
       </c>
       <c r="E161" t="s">
@@ -5759,17 +8222,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>206</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
       </c>
-      <c r="C162" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" s="1" t="n">
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162" s="1">
         <v>37647</v>
       </c>
       <c r="E162" t="s">
@@ -5788,17 +8251,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>207</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>1</v>
       </c>
-      <c r="D163" s="1" t="n">
+      <c r="D163" s="1">
         <v>36343</v>
       </c>
       <c r="E163" t="s">
@@ -5817,17 +8280,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>208</v>
       </c>
       <c r="B164" t="s">
         <v>27</v>
       </c>
-      <c r="C164" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" s="1" t="n">
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164" s="1">
         <v>21399</v>
       </c>
       <c r="E164" t="s">
@@ -5846,17 +8309,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>209</v>
       </c>
       <c r="B165" t="s">
         <v>27</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>1</v>
       </c>
-      <c r="D165" s="1" t="n">
+      <c r="D165" s="1">
         <v>29111</v>
       </c>
       <c r="E165" t="s">
@@ -5875,17 +8338,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>210</v>
       </c>
       <c r="B166" t="s">
         <v>27</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>1</v>
       </c>
-      <c r="D166" s="1" t="n">
+      <c r="D166" s="1">
         <v>25724</v>
       </c>
       <c r="E166" t="s">
@@ -5904,17 +8367,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>211</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>1</v>
       </c>
-      <c r="D167" s="1" t="n">
+      <c r="D167" s="1">
         <v>31075</v>
       </c>
       <c r="E167" t="s">
@@ -5933,17 +8396,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>212</v>
       </c>
       <c r="B168" t="s">
         <v>27</v>
       </c>
-      <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" s="1" t="n">
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168" s="1">
         <v>15221</v>
       </c>
       <c r="E168" t="s">
@@ -5962,17 +8425,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>214</v>
       </c>
       <c r="B169" t="s">
         <v>27</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>1</v>
       </c>
-      <c r="D169" s="1" t="n">
+      <c r="D169" s="1">
         <v>25588</v>
       </c>
       <c r="E169" t="s">
@@ -5991,17 +8454,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>215</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
       </c>
-      <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" s="1" t="n">
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170" s="1">
         <v>30950</v>
       </c>
       <c r="E170" t="s">
@@ -6020,17 +8483,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>216</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
       </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" s="1" t="n">
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171" s="1">
         <v>33703</v>
       </c>
       <c r="E171" t="s">
@@ -6049,17 +8512,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>217</v>
       </c>
       <c r="B172" t="s">
         <v>27</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>1</v>
       </c>
-      <c r="D172" s="1" t="n">
+      <c r="D172" s="1">
         <v>33930</v>
       </c>
       <c r="E172" t="s">
@@ -6078,17 +8541,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>218</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>1</v>
       </c>
-      <c r="D173" s="1" t="n">
+      <c r="D173" s="1">
         <v>19707</v>
       </c>
       <c r="E173" t="s">
@@ -6107,17 +8570,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>219</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
       </c>
-      <c r="C174" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" s="1" t="n">
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1">
         <v>19317</v>
       </c>
       <c r="E174" t="s">
@@ -6136,17 +8599,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>220</v>
       </c>
       <c r="B175" t="s">
         <v>27</v>
       </c>
-      <c r="C175" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" s="1" t="n">
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175" s="1">
         <v>36220</v>
       </c>
       <c r="E175" t="s">
@@ -6165,17 +8628,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>221</v>
       </c>
       <c r="B176" t="s">
         <v>27</v>
       </c>
-      <c r="C176" t="n">
-        <v>0</v>
-      </c>
-      <c r="D176" s="1" t="n">
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176" s="1">
         <v>27816</v>
       </c>
       <c r="E176" t="s">
@@ -6194,17 +8657,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>222</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>1</v>
       </c>
-      <c r="D177" s="1" t="n">
+      <c r="D177" s="1">
         <v>18022</v>
       </c>
       <c r="E177" t="s">
@@ -6223,17 +8686,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>223</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
       </c>
-      <c r="C178" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" s="1" t="n">
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178" s="1">
         <v>37514</v>
       </c>
       <c r="E178" t="s">
@@ -6252,17 +8715,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>224</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
       </c>
-      <c r="C179" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" s="1" t="n">
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179" s="1">
         <v>27606</v>
       </c>
       <c r="E179" t="s">
@@ -6281,17 +8744,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>225</v>
       </c>
       <c r="B180" t="s">
         <v>27</v>
       </c>
-      <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" s="1" t="n">
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1">
         <v>22215</v>
       </c>
       <c r="E180" t="s">
@@ -6310,17 +8773,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>226</v>
       </c>
       <c r="B181" t="s">
         <v>27</v>
       </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" s="1" t="n">
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181" s="1">
         <v>35210</v>
       </c>
       <c r="E181" t="s">
@@ -6339,17 +8802,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>227</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>1</v>
       </c>
-      <c r="D182" s="1" t="n">
+      <c r="D182" s="1">
         <v>30492</v>
       </c>
       <c r="E182" t="s">
@@ -6368,17 +8831,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>228</v>
       </c>
       <c r="B183" t="s">
         <v>10</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>1</v>
       </c>
-      <c r="D183" s="1" t="n">
+      <c r="D183" s="1">
         <v>33014</v>
       </c>
       <c r="E183" t="s">
@@ -6397,17 +8860,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>229</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
       </c>
-      <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" s="1" t="n">
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184" s="1">
         <v>26391</v>
       </c>
       <c r="E184" t="s">
@@ -6426,17 +8889,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>230</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
       </c>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" s="1" t="n">
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185" s="1">
         <v>37586</v>
       </c>
       <c r="E185" t="s">
@@ -6455,17 +8918,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>231</v>
       </c>
       <c r="B186" t="s">
         <v>10</v>
       </c>
-      <c r="C186" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" s="1" t="n">
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186" s="1">
         <v>27357</v>
       </c>
       <c r="E186" t="s">
@@ -6484,17 +8947,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>232</v>
       </c>
       <c r="B187" t="s">
         <v>27</v>
       </c>
-      <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" s="1" t="n">
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187" s="1">
         <v>29629</v>
       </c>
       <c r="E187" t="s">
@@ -6513,17 +8976,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>233</v>
       </c>
       <c r="B188" t="s">
         <v>27</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>1</v>
       </c>
-      <c r="D188" s="1" t="n">
+      <c r="D188" s="1">
         <v>29733</v>
       </c>
       <c r="E188" t="s">
@@ -6542,17 +9005,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>234</v>
       </c>
       <c r="B189" t="s">
         <v>27</v>
       </c>
-      <c r="C189" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" s="1" t="n">
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189" s="1">
         <v>13463</v>
       </c>
       <c r="E189" t="s">
@@ -6571,17 +9034,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>235</v>
       </c>
       <c r="B190" t="s">
         <v>27</v>
       </c>
-      <c r="C190" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" s="1" t="n">
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1">
         <v>30551</v>
       </c>
       <c r="E190" t="s">
@@ -6600,17 +9063,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>236</v>
       </c>
       <c r="B191" t="s">
         <v>27</v>
       </c>
-      <c r="C191" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" s="1" t="n">
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1">
         <v>15108</v>
       </c>
       <c r="E191" t="s">
@@ -6629,17 +9092,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>237</v>
       </c>
       <c r="B192" t="s">
         <v>10</v>
       </c>
-      <c r="C192" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" s="1" t="n">
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192" s="1">
         <v>28077</v>
       </c>
       <c r="E192" t="s">
@@ -6658,17 +9121,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>238</v>
       </c>
       <c r="B193" t="s">
         <v>10</v>
       </c>
-      <c r="C193" t="n">
-        <v>0</v>
-      </c>
-      <c r="D193" s="1" t="n">
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193" s="1">
         <v>21933</v>
       </c>
       <c r="E193" t="s">
@@ -6687,17 +9150,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>239</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
       </c>
-      <c r="C194" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" s="1" t="n">
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194" s="1">
         <v>25105</v>
       </c>
       <c r="E194" t="s">
@@ -6716,17 +9179,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>240</v>
       </c>
       <c r="B195" t="s">
         <v>10</v>
       </c>
-      <c r="C195" t="n">
-        <v>0</v>
-      </c>
-      <c r="D195" s="1" t="n">
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195" s="1">
         <v>26167</v>
       </c>
       <c r="E195" t="s">
@@ -6745,17 +9208,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>241</v>
       </c>
       <c r="B196" t="s">
         <v>10</v>
       </c>
-      <c r="C196" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" s="1" t="n">
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196" s="1">
         <v>30859</v>
       </c>
       <c r="E196" t="s">
@@ -6774,17 +9237,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>242</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>1</v>
       </c>
-      <c r="D197" s="1" t="n">
+      <c r="D197" s="1">
         <v>35507</v>
       </c>
       <c r="E197" t="s">
@@ -6803,17 +9266,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>243</v>
       </c>
       <c r="B198" t="s">
         <v>27</v>
       </c>
-      <c r="C198" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" s="1" t="n">
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198" s="1">
         <v>33109</v>
       </c>
       <c r="E198" t="s">
@@ -6832,17 +9295,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>244</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
       </c>
-      <c r="C199" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" s="1" t="n">
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199" s="1">
         <v>38352</v>
       </c>
       <c r="E199" t="s">
@@ -6861,17 +9324,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>245</v>
       </c>
       <c r="B200" t="s">
         <v>10</v>
       </c>
-      <c r="C200" t="n">
-        <v>0</v>
-      </c>
-      <c r="D200" s="1" t="n">
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200" s="1">
         <v>35214</v>
       </c>
       <c r="E200" t="s">
@@ -6890,17 +9353,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>246</v>
       </c>
       <c r="B201" t="s">
         <v>27</v>
       </c>
-      <c r="C201" t="n">
-        <v>0</v>
-      </c>
-      <c r="D201" s="1" t="n">
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201" s="1">
         <v>21407</v>
       </c>
       <c r="E201" t="s">
@@ -6921,11 +9384,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f72b764-4b0f-4352-b2a3-29d337326309">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0ddf43ae-6642-4ea9-b706-07519d4cc3e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFF4F8DD4AF95548A29E5B36B9FF92C8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab34acb651412efa50d0579d77d1b472">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f72b764-4b0f-4352-b2a3-29d337326309" xmlns:ns3="0ddf43ae-6642-4ea9-b706-07519d4cc3e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1609f74860d2836c40a0786265c30a43" ns2:_="" ns3:_="">
     <xsd:import namespace="7f72b764-4b0f-4352-b2a3-29d337326309"/>
@@ -7120,34 +9603,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f72b764-4b0f-4352-b2a3-29d337326309">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0ddf43ae-6642-4ea9-b706-07519d4cc3e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32E6BEF0-75CF-484E-B25B-3CC9107BE23D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAC1211B-2280-4FBB-B14D-D46C02C6358F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7f72b764-4b0f-4352-b2a3-29d337326309"/>
+    <ds:schemaRef ds:uri="0ddf43ae-6642-4ea9-b706-07519d4cc3e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5D43319-2432-465E-BC35-30B44D86D4DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5D43319-2432-465E-BC35-30B44D86D4DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAC1211B-2280-4FBB-B14D-D46C02C6358F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32E6BEF0-75CF-484E-B25B-3CC9107BE23D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7f72b764-4b0f-4352-b2a3-29d337326309"/>
+    <ds:schemaRef ds:uri="0ddf43ae-6642-4ea9-b706-07519d4cc3e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>